--- a/EXTC/Format/利用確認書_スタジオ.xlsx
+++ b/EXTC/Format/利用確認書_スタジオ.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s0707\Desktop\EXT_H0701\EXT_H0701\format\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="19395" windowHeight="9405"/>
+    <workbookView xWindow="600" yWindow="100" windowWidth="19390" windowHeight="9410"/>
   </bookViews>
   <sheets>
     <sheet name="スタジオ確認書" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スタジオ確認書!$A$1:$S$41</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -257,9 +262,6 @@
     <t>受付担当：</t>
   </si>
   <si>
-    <t xml:space="preserve">※利用料減額免除の承認(事由) / </t>
-  </si>
-  <si>
     <t>～</t>
   </si>
   <si>
@@ -274,11 +276,15 @@
     <t>大変お手数ですが、下記内容をご確認いただき、必要事項をご記入のうえ、ご返送をお願いいたします。</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t xml:space="preserve">※利用料減額免除の承認(事由) / </t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
@@ -653,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -1297,74 +1303,6 @@
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -1427,7 +1365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,6 +1576,213 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,228 +1806,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="16" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="45" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="56" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1899,12 +1822,671 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>256192</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168627</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1036121" y="11492490"/>
+          <a:ext cx="759600" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>STUDIO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>事務室</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入力確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257641</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170076</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037570" y="11888401"/>
+          <a:ext cx="759600" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257643</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>83123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170078</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1037572" y="12284088"/>
+          <a:ext cx="759600" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入金予定日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279689</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255760</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279689" y="11492490"/>
+          <a:ext cx="756000" cy="1188000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279689</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255760</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279689" y="11492490"/>
+          <a:ext cx="756000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ちゃり</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>~</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ん。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>EXAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求依頼</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="700">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251117</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>251011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>159952</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161693</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1031046" y="12451976"/>
+          <a:ext cx="756000" cy="215482"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279322</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255393</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>278235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="279322" y="11897093"/>
+          <a:ext cx="756000" cy="277307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171742</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214165</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1798836" y="11492490"/>
+          <a:ext cx="759600" cy="1188000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1913,8 +2495,8 @@
       <xdr:rowOff>13921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>330993</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>3333</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>13921</xdr:rowOff>
     </xdr:to>
@@ -1952,903 +2534,1189 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>427154</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>66664</xdr:rowOff>
+      <xdr:colOff>435703</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>257695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>282115</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>203741</xdr:rowOff>
+      <xdr:colOff>282114</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>197196</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="21" name="グループ化 20"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4896577" y="11694491"/>
-          <a:ext cx="3240000" cy="1368000"/>
-          <a:chOff x="5600699" y="11715750"/>
-          <a:chExt cx="3249526" cy="1382157"/>
+          <a:off x="4474303" y="12153860"/>
+          <a:ext cx="2907858" cy="244301"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5610225" y="12545458"/>
-            <a:ext cx="3240000" cy="552449"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Franklin Gothic Demi"/>
-              </a:rPr>
-              <a:t>EX STUIO ROPPONGI</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Franklin Gothic Demi"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>直通：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>03-6406-2118</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="sng" strike="noStrike" baseline="0">
+            </a:rPr>
+            <a:t>EX STUIO ROPPONGI</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Franklin Gothic Demi"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427155</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>277257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>26262</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>290622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465755" y="11241092"/>
+          <a:ext cx="2342307" cy="327130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>株式会社テレビ朝日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>総合ビジネス局 </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427154</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>222519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>308364</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>235884</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4465754" y="11500119"/>
+          <a:ext cx="2624410" cy="327130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>イベント事業部 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>EX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>シアター事務室</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1">
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>435703</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>164062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>265621</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>106542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4474303" y="11755427"/>
+          <a:ext cx="2573118" cy="247280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="テキスト ボックス 19"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5600700" y="11715750"/>
-            <a:ext cx="2609850" cy="333375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>株式会社テレビ朝日</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>総合ビジネス局 </a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
-              <a:effectLst/>
+            </a:rPr>
+            <a:t>〒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5600699" y="11915775"/>
-            <a:ext cx="2924175" cy="333375"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525" cmpd="sng">
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>イベント事業センター </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>EX</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>シアター事務室</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000" b="1">
-              <a:effectLst/>
+            </a:rPr>
+            <a:t>106-0031</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
               <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5610224" y="12134850"/>
-            <a:ext cx="2867025" cy="252000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>〒</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>106-0031</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>　東京都港区西麻布</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>1-2-9 </a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-              </a:rPr>
-              <a:t>　　　　　　　　　</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Text Box 1"/>
-          <xdr:cNvSpPr txBox="1">
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5629275" y="12334875"/>
-            <a:ext cx="1728000" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst/>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l" rtl="0">
-              <a:defRPr sz="1000"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>TEL</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>：</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-                <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>03-6406-2222</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="ＭＳ ゴシック"/>
-                <a:ea typeface="ＭＳ ゴシック"/>
-              </a:rPr>
-              <a:t>　　</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>　東京都港区西麻布</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>1-2-9 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>452801</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>12449</xdr:rowOff>
+      <xdr:rowOff>15202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>107624</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4491401" y="11911367"/>
+          <a:ext cx="1550858" cy="308437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>03-6406-2222</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14059</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>281483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313794</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>211715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="404024" y="11245318"/>
+          <a:ext cx="1536864" cy="243997"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>利用料＆付帯使用料請求　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>427154</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>273565</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>183775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4465754" y="12361707"/>
+          <a:ext cx="2907858" cy="327833"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>直通：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>03-6406-2118</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" u="sng" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171742</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>360626</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>251519</xdr:rowOff>
+      <xdr:colOff>214165</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297125</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="グループ化 27"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="11948007"/>
-          <a:ext cx="2954357" cy="1162262"/>
-          <a:chOff x="197829" y="12013949"/>
-          <a:chExt cx="2954357" cy="1162262"/>
+          <a:off x="1798836" y="11492490"/>
+          <a:ext cx="759600" cy="396000"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="197829" y="12018351"/>
-            <a:ext cx="738677" cy="1152000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
             </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="197829" y="12018350"/>
-            <a:ext cx="738677" cy="385153"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>会計</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="936389" y="12016154"/>
-            <a:ext cx="738677" cy="1160057"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="テキスト ボックス 51"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="936389" y="12016883"/>
-            <a:ext cx="738677" cy="385153"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>担当</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1674948" y="12015416"/>
-            <a:ext cx="738677" cy="389065"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>担当</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="54" name="正方形/長方形 53"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1674949" y="12016154"/>
-            <a:ext cx="738677" cy="1158590"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2413509" y="12014687"/>
-            <a:ext cx="738677" cy="1158590"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2413508" y="12013949"/>
-            <a:ext cx="738677" cy="389065"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="lt1"/>
-          </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
               <a:solidFill>
                 <a:schemeClr val="bg1">
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+            </a:rPr>
+            <a:t>請求内容確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200237</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176308</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2544508" y="11492490"/>
+          <a:ext cx="756000" cy="1188000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200236</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>176307</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2544507" y="11492490"/>
+          <a:ext cx="756000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>請求書発行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173466</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15066</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3297666" y="11492490"/>
+          <a:ext cx="756000" cy="1188000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173465</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>214890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15065</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>297125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3297665" y="11492490"/>
+          <a:ext cx="756000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入金確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179399</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20999</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>278235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3303599" y="11897093"/>
+          <a:ext cx="756000" cy="277307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>201810</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>177881</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>278235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2546081" y="11897093"/>
+          <a:ext cx="756000" cy="277307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152505</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>191328</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>278235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1779599" y="11897093"/>
+          <a:ext cx="756000" cy="277307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="74295" tIns="8890" rIns="74295" bIns="8890" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　　　　　　　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2890,7 +3758,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2925,7 +3793,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3140,52 +4008,52 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="5.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.75" style="1" customWidth="1"/>
-    <col min="6" max="8" width="5.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="6.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="3" width="5.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="5.6328125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.453125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
     </row>
-    <row r="2" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="16.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3205,242 +4073,242 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="151"/>
-      <c r="Q3" s="151"/>
-      <c r="R3" s="151"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
     </row>
-    <row r="4" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
+    <row r="4" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
       <c r="S4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="70" t="s">
+    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="139"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="139"/>
+      <c r="R6" s="139"/>
+      <c r="S6" s="139"/>
     </row>
-    <row r="7" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
+    <row r="7" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="139" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="139"/>
+      <c r="Q7" s="139"/>
+      <c r="R7" s="139"/>
+      <c r="S7" s="139"/>
     </row>
-    <row r="8" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
+    <row r="9" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="130"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="130"/>
+      <c r="L9" s="130"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="130"/>
+      <c r="P9" s="130"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="S9" s="130"/>
     </row>
-    <row r="10" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="79" t="s">
+    <row r="10" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
+      <c r="B10" s="132"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="138"/>
       <c r="S10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="85" t="s">
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="85"/>
-      <c r="R11" s="85"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="137"/>
+      <c r="R11" s="137"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+    <row r="12" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="114"/>
       <c r="S12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="94" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="95" t="s">
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="S13" s="96"/>
+      <c r="S13" s="120"/>
     </row>
-    <row r="14" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
+    <row r="14" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="121"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="10"/>
-      <c r="M14" s="99"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="124"/>
+      <c r="O14" s="124"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="12" t="s">
         <v>12</v>
@@ -3450,18 +4318,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
+    <row r="15" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="125"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
       <c r="E15" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+        <v>41</v>
+      </c>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
       <c r="J15" s="16"/>
       <c r="K15" s="16" t="s">
         <v>11</v>
@@ -3481,18 +4349,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="103"/>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+    <row r="16" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
       <c r="E16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+        <v>42</v>
+      </c>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25" t="s">
         <v>11</v>
@@ -3512,30 +4380,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="62" customFormat="1" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="105" t="s">
+    <row r="17" spans="1:19" s="62" customFormat="1" ht="23.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="105"/>
-      <c r="Q17" s="105"/>
-      <c r="R17" s="105"/>
-      <c r="S17" s="105"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="129"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="129"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="129"/>
+      <c r="P17" s="129"/>
+      <c r="Q17" s="129"/>
+      <c r="R17" s="129"/>
+      <c r="S17" s="129"/>
     </row>
-    <row r="18" spans="1:19" s="62" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" s="62" customFormat="1" ht="23.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="60" t="s">
         <v>17</v>
       </c>
@@ -3558,7 +4426,7 @@
       <c r="R18" s="69"/>
       <c r="S18" s="67"/>
     </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -3579,215 +4447,215 @@
       <c r="R19" s="44"/>
       <c r="S19" s="45"/>
     </row>
-    <row r="20" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="87" t="s">
+    <row r="20" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A20" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
     </row>
-    <row r="21" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="126" t="s">
+    <row r="21" spans="1:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
-      <c r="O21" s="129"/>
-      <c r="P21" s="129"/>
-      <c r="Q21" s="129"/>
-      <c r="R21" s="130"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="100"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="127"/>
-      <c r="B22" s="108" t="s">
+    <row r="22" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="97"/>
+      <c r="B22" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
       <c r="S22" s="48"/>
     </row>
-    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="127"/>
-      <c r="B23" s="108" t="s">
+    <row r="23" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="97"/>
+      <c r="B23" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="110" t="s">
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
       <c r="K23" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="113"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="131"/>
-      <c r="Q23" s="132"/>
-      <c r="R23" s="117"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="86"/>
       <c r="S23" s="48"/>
     </row>
-    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127"/>
-      <c r="B24" s="108" t="s">
+    <row r="24" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97"/>
+      <c r="B24" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
       <c r="S24" s="48"/>
     </row>
-    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="127"/>
-      <c r="B25" s="108" t="s">
+    <row r="25" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="97"/>
+      <c r="B25" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
       <c r="K25" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
       <c r="S25" s="48"/>
     </row>
-    <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="127"/>
-      <c r="B26" s="116" t="s">
+    <row r="26" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="97"/>
+      <c r="B26" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
       <c r="S26" s="48"/>
     </row>
-    <row r="27" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="118" t="s">
+    <row r="27" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="119"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="119"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="121" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="121"/>
-      <c r="L27" s="122"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="122"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
       <c r="O27" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="125"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
       <c r="S27" s="52"/>
     </row>
-    <row r="28" spans="1:19" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" ht="23.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="60" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" ht="23.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -3797,13 +4665,13 @@
       <c r="G30" s="53"/>
       <c r="H30" s="53"/>
     </row>
-    <row r="31" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="144" t="s">
+    <row r="31" spans="1:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="54"/>
@@ -3820,124 +4688,124 @@
       <c r="R31" s="54"/>
       <c r="S31" s="54"/>
     </row>
-    <row r="32" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="145" t="s">
+    <row r="32" spans="1:19" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="147" t="s">
+      <c r="B32" s="80"/>
+      <c r="C32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="147"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="148" t="s">
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="146"/>
-      <c r="J32" s="133" t="s">
+      <c r="I32" s="80"/>
+      <c r="J32" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="149"/>
-      <c r="N32" s="146" t="s">
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="83"/>
+      <c r="N32" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="O32" s="146"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="133"/>
-      <c r="R32" s="133"/>
-      <c r="S32" s="134"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="73"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="74"/>
     </row>
-    <row r="33" spans="1:19" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="135"/>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="137"/>
+    <row r="33" spans="1:19" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A33" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="77"/>
     </row>
-    <row r="34" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="138"/>
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="139"/>
-      <c r="P34" s="139"/>
-      <c r="Q34" s="139"/>
-      <c r="R34" s="139"/>
-      <c r="S34" s="140"/>
+    <row r="34" spans="1:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="72"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
     </row>
-    <row r="35" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="141" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
-      <c r="M35" s="142"/>
-      <c r="N35" s="142"/>
-      <c r="O35" s="142"/>
-      <c r="P35" s="142"/>
-      <c r="Q35" s="142"/>
-      <c r="R35" s="142"/>
-      <c r="S35" s="143"/>
+    <row r="35" spans="1:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="72"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
     </row>
-    <row r="36" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="55"/>
     </row>
-    <row r="37" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
     </row>
-    <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58"/>
       <c r="D38" s="57"/>
       <c r="E38" s="57"/>
     </row>
-    <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="59"/>
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
     </row>
-    <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
       <c r="N41" s="61"/>
@@ -3946,19 +4814,42 @@
       <c r="Q41" s="61"/>
       <c r="R41" s="61"/>
     </row>
-    <row r="42" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="P32:S32"/>
-    <mergeCell ref="A33:S33"/>
-    <mergeCell ref="A34:S34"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:O32"/>
+  <mergeCells count="57">
+    <mergeCell ref="A7:S7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:R4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A9:S9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="D10:R10"/>
+    <mergeCell ref="A20:S20"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:R12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="A17:S17"/>
+    <mergeCell ref="E24:R24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="L25:R25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="L23:O23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:K26"/>
     <mergeCell ref="L26:R26"/>
@@ -3975,39 +4866,14 @@
     <mergeCell ref="H22:R22"/>
     <mergeCell ref="P23:R23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:R24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:J25"/>
-    <mergeCell ref="L25:R25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A20:S20"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:R12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="A17:S17"/>
-    <mergeCell ref="A9:S9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="D10:R10"/>
-    <mergeCell ref="A7:S7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:R4"/>
-    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="P32:S32"/>
+    <mergeCell ref="A33:S33"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:O32"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
